--- a/99_研修課題/11月分/課題内容.xlsx
+++ b/99_研修課題/11月分/課題内容.xlsx
@@ -8,14 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="メイン" sheetId="1" r:id="rId1"/>
-    <sheet name="Port 8080 was already in use" sheetId="2" r:id="rId2"/>
+    <sheet name="Spring実行方法" sheetId="3" r:id="rId2"/>
+    <sheet name="Port 8080 was already in use" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="78">
   <si>
     <t>　　　　　　　　　～課題の開始</t>
   </si>
@@ -33,7 +34,7 @@
     <rPh sb="5" eb="7">
       <t>カダイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>下記二つの画面を作成する</t>
@@ -49,42 +50,42 @@
     <rPh sb="8" eb="10">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>①問題画面</t>
     <rPh sb="1" eb="5">
       <t>モンダイガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>②結果画面</t>
     <rPh sb="1" eb="5">
       <t>ケッカガメン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>＜表示内容＞</t>
     <rPh sb="1" eb="5">
       <t>ヒョウジナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>問題文</t>
     <rPh sb="0" eb="3">
       <t>モンダイブン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>解答入力欄</t>
     <rPh sb="0" eb="5">
       <t>カイトウニュウリョクラン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>結果画面への遷移ボタン</t>
@@ -94,14 +95,14 @@
     <rPh sb="6" eb="8">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>解答</t>
     <rPh sb="0" eb="2">
       <t>カイトウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>問題画面への遷移ボタン</t>
@@ -114,11 +115,11 @@
     <rPh sb="6" eb="8">
       <t>センイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・概要：クイズサイト作成</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・学習目的：tymeleefの理解</t>
@@ -128,54 +129,54 @@
     <rPh sb="15" eb="17">
       <t>リカイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・スケジュール：9:00～10:00　開発手順書、課題の説明（中村、平根）</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>　画面遷移、MVCの理解</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>　MVC間の値の受け渡しの理解</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・課題内容</t>
     <rPh sb="1" eb="5">
       <t>カダイナイヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>・手順</t>
     <rPh sb="1" eb="3">
       <t>テジュン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>をワークフォルダーに解凍</t>
     <rPh sb="10" eb="12">
       <t>カイトウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>①同フォルダーにある</t>
     <rPh sb="1" eb="2">
       <t>ドウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>②sts上で</t>
     <rPh sb="4" eb="5">
       <t>ジョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>ファイル＞インポート＞一般＞既存プロジェクトをワークスペースへ</t>
@@ -185,22 +186,22 @@
     <rPh sb="14" eb="16">
       <t>キゾン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>quiz.zip</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>quizを指定</t>
     <rPh sb="5" eb="7">
       <t>シテイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>③/quiz/src/main/java/com/example/demo/QuizApplication.java</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>上で右クリック</t>
@@ -210,21 +211,21 @@
     <rPh sb="2" eb="3">
       <t>ミギ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>実行＞Spring Bootアプリケーション</t>
     <rPh sb="0" eb="2">
       <t>ジッコウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>④インターネット上で</t>
     <rPh sb="8" eb="9">
       <t>ジョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>http://localhost:8080/sampleQuestion</t>
@@ -234,7 +235,7 @@
     <rPh sb="1" eb="3">
       <t>ニュウリョク</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>動作を確認する</t>
@@ -244,11 +245,11 @@
     <rPh sb="3" eb="5">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Port 8080 was already in use</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>と出る場合は</t>
@@ -258,33 +259,33 @@
     <rPh sb="3" eb="5">
       <t>バアイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>コンソールに</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>①</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>netstat -ao | find "【ポート番号】"</t>
     <rPh sb="24" eb="26">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>例</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>netstat -ao | find "8080"</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>をしてポートを使用しているプロセスを確認する</t>
@@ -294,53 +295,53 @@
     <rPh sb="18" eb="20">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>②</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>taskkill /f /pid 【プロセスID】</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>taskkill /f /pid 13568</t>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>をプロセスを強制終了させる</t>
     <rPh sb="6" eb="10">
       <t>キョウセイシュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="6"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>「Port 8080 was already in use」シートを実施</t>
     <rPh sb="34" eb="36">
       <t>ジッシ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>sampleAnswer.html</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>sampleQuestion.html</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>SampleQuizLogic.java</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>SampleQuizController.java</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>※</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>には作成例がのっていますので、作成完了するまで見ないでください</t>
@@ -356,7 +357,7 @@
     <rPh sb="23" eb="24">
       <t>ミ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>研修中に完了しなかった場合は、最後に参考例として確認してください</t>
@@ -378,7 +379,7 @@
     <rPh sb="24" eb="26">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>「Thymeleafを使用するとき必ずすること」シートはすでに実施済みのため、設定不要です</t>
@@ -388,7 +389,7 @@
     <rPh sb="39" eb="43">
       <t>セッテイフヨウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>⑤コーディング手順書.xlsxを確認して開発開始！</t>
@@ -401,7 +402,7 @@
     <rPh sb="20" eb="24">
       <t>カイハツカイシ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>基本的なファイルの配置は下記</t>
@@ -414,7 +415,7 @@
     <rPh sb="12" eb="14">
       <t>カキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>結果（答えが一致していた場合「正解」、不一致ならば「不正解」と表示）</t>
@@ -442,19 +443,171 @@
     <rPh sb="31" eb="33">
       <t>ヒョウジ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【モデル】</t>
+  </si>
+  <si>
+    <t>システム内のビジネスロジックを担当します。システムの設計や機能をどうするかがここで行われます。</t>
+  </si>
+  <si>
+    <t>【ビュー】</t>
+  </si>
+  <si>
+    <t>実際に表示したり、入力する機能の処理を行うのがビューです。</t>
+  </si>
+  <si>
+    <t>コントローラーは、ユーザーの入力に基づきモデルとビューを制御する役割を担っています。「クライアント」「モデル」「ビュー」の橋渡し役となります。</t>
+  </si>
+  <si>
+    <t>タブの中に記述を足していくだけで使用でき、難しい変換なども必要としないため、デザイナーの仕事を邪魔せずに開発することができます。</t>
+  </si>
+  <si>
+    <t>・MVCとは</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・tymeleefとは</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Thymeleafの一番のメリットといえるのが独自のタグを使用しないので、普通のHTMLファイルをそのままJavaで使用できることです。</t>
+  </si>
+  <si>
+    <t>＜画面上に文字を表示する場合＞</t>
+    <rPh sb="1" eb="3">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・ｊｓｐ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>こんにちは、&lt;% out.print(name);%&gt;さん！</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>こんにちは、&lt;span th:text="${name}"&gt;&lt;/span&gt;さん！</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・tymeleef</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>tymeleefのほうがspanというHTMLのタグをそのまま使用できるメリットがある</t>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>【コントローラー】</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Java（コントローラー）で指定した値をHTML上に表示、また逆にHTMLの入力値をJava（コントローラー）に返却できるリソース</t>
+    <rPh sb="14" eb="16">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ギャク</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヘンキャク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>JspとJavaSevletに似ていますが、</t>
+    <rPh sb="15" eb="16">
+      <t>ニ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>①PJで右クリック＞実行＞Sprinng Bootアプリケーション</t>
+    <rPh sb="4" eb="5">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>コンソールにStarted　●●と表示される</t>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>②http://localhost:8080/XXをインターネット上で実行すると</t>
+    <rPh sb="33" eb="34">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>画面が表示される</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -542,27 +695,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2"/>
+    <cellStyle name="標準 3" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1487,6 +1647,248 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>110219</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect r="59943" b="23233"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="723900" y="781051"/>
+          <a:ext cx="4029075" cy="4343400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2733675" y="4457700"/>
+          <a:ext cx="1962150" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17319</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>502227</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>3711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="22977" t="55138" r="14374" b="2607"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="703119" y="5836227"/>
+          <a:ext cx="11457708" cy="4182341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>244929</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>134711</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7198179" y="9212035"/>
+          <a:ext cx="1962150" cy="209551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>204108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>530679</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>175533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect r="74774" b="85712"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="11395983"/>
+          <a:ext cx="4645479" cy="1374322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1962,7 +2364,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K77"/>
+  <dimension ref="B2:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -2151,58 +2553,146 @@
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B66" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B67" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B69" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B70" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B71" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B72" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B73" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B74" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B75" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B77" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="P77" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="P78" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.15">
+      <c r="P79" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="81" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P81" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P82" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="85" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P85" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P86" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P90" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P91" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="92" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P92" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="93" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P93" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P94" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P96" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P97" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P98" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P99" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="100" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P100" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P102" s="2" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2211,11 +2701,47 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B47"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B46" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B38:H43"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
-    </sheetView>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2265,7 +2791,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
